--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14040,7 +14040,9 @@
       <c r="A20" s="257" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="13"/>
+      <c r="B20" s="13" t="str">
+        <v/>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -14053,7 +14055,9 @@
       <c r="A21" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="13" t="str">
+        <v/>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -14066,7 +14070,9 @@
       <c r="A22" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="13" t="str">
+        <v/>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -14079,7 +14085,9 @@
       <c r="A23" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="13" t="str">
+        <v/>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -14092,7 +14100,9 @@
       <c r="A24" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="13" t="str">
+        <v/>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -14105,7 +14115,9 @@
       <c r="A25" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="13" t="str">
+        <v/>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -14118,7 +14130,9 @@
       <c r="A26" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="13" t="str">
+        <v/>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -14131,7 +14145,9 @@
       <c r="A27" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="13" t="str">
+        <v/>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -14144,7 +14160,9 @@
       <c r="A28" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="13" t="str">
+        <v/>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -14157,7 +14175,9 @@
       <c r="A29" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="13" t="str">
+        <v/>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -14170,7 +14190,9 @@
       <c r="A30" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="13" t="str">
+        <v/>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -14246,7 +14268,9 @@
       <c r="A36" s="257" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="13"/>
+      <c r="B36" s="13" t="str">
+        <v/>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -14259,7 +14283,9 @@
       <c r="A37" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="13"/>
+      <c r="B37" s="13" t="str">
+        <v/>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -14272,7 +14298,9 @@
       <c r="A38" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="13"/>
+      <c r="B38" s="13" t="str">
+        <v/>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -14285,7 +14313,9 @@
       <c r="A39" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="13" t="str">
+        <v/>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -14298,7 +14328,9 @@
       <c r="A40" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="13" t="str">
+        <v/>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -14311,7 +14343,9 @@
       <c r="A41" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="13"/>
+      <c r="B41" s="13" t="str">
+        <v/>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -14324,7 +14358,9 @@
       <c r="A42" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="13"/>
+      <c r="B42" s="13" t="str">
+        <v/>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -14337,7 +14373,9 @@
       <c r="A43" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="13"/>
+      <c r="B43" s="13" t="str">
+        <v/>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -14350,7 +14388,9 @@
       <c r="A44" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="13" t="str">
+        <v/>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -14363,7 +14403,9 @@
       <c r="A45" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="13" t="str">
+        <v/>
+      </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -14376,7 +14418,9 @@
       <c r="A46" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="13" t="str">
+        <v/>
+      </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -14452,7 +14496,9 @@
       <c r="A52" s="257" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="5"/>
+      <c r="B52" s="5">
+        <v>77.76</v>
+      </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -14465,7 +14511,9 @@
       <c r="A53" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5">
+        <v>97.2</v>
+      </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -14478,7 +14526,9 @@
       <c r="A54" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="243"/>
+      <c r="B54" s="243">
+        <v>38.38</v>
+      </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -14491,7 +14541,9 @@
       <c r="A55" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="B55" s="242"/>
+      <c r="B55" s="242">
+        <v>0.01</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -14504,7 +14556,9 @@
       <c r="A56" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="5"/>
+      <c r="B56" s="5">
+        <v>39.03</v>
+      </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -14517,7 +14571,9 @@
       <c r="A57" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="5"/>
+      <c r="B57" s="5">
+        <v>38.68</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -14530,7 +14586,9 @@
       <c r="A58" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="5"/>
+      <c r="B58" s="5">
+        <v>38.32</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -14543,7 +14601,9 @@
       <c r="A59" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="5">
+        <v>38.32</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -14556,7 +14616,9 @@
       <c r="A60" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="5"/>
+      <c r="B60" s="5">
+        <v>52.77</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -14569,7 +14631,9 @@
       <c r="A61" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="5">
+        <v>49.9</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -14582,7 +14646,9 @@
       <c r="A62" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5">
+        <v>43.45</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -14658,7 +14724,9 @@
       <c r="A68" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="244"/>
+      <c r="B68" s="244">
+        <v>0.62</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -14671,7 +14739,9 @@
       <c r="A69" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B69" s="244"/>
+      <c r="B69" s="244">
+        <v>0.62</v>
+      </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -14684,7 +14754,9 @@
       <c r="A70" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="B70" s="244"/>
+      <c r="B70" s="244">
+        <v>0.62</v>
+      </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -14697,7 +14769,9 @@
       <c r="A71" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="244"/>
+      <c r="B71" s="244">
+        <v>0.85</v>
+      </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -14710,7 +14784,9 @@
       <c r="A72" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B72" s="244"/>
+      <c r="B72" s="244">
+        <v>0.8</v>
+      </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -14723,7 +14799,9 @@
       <c r="A73" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="244"/>
+      <c r="B73" s="244">
+        <v>1.39</v>
+      </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -14799,7 +14877,9 @@
       <c r="A79" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="13">
+        <v>20.000242887977276</v>
+      </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -14812,7 +14892,9 @@
       <c r="A80" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="13"/>
+      <c r="B80" s="13">
+        <v>18.538224066675696</v>
+      </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -14825,7 +14907,9 @@
       <c r="A81" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="13"/>
+      <c r="B81" s="13">
+        <v>15.397765234358694</v>
+      </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -14901,7 +14985,9 @@
       <c r="A87" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B87" s="13"/>
+      <c r="B87" s="13">
+        <v>20.001259091893935</v>
+      </c>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
       <c r="E87" s="4"/>
@@ -14914,7 +15000,9 @@
       <c r="A88" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B88" s="13"/>
+      <c r="B88" s="13">
+        <v>20.001258893487606</v>
+      </c>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
       <c r="E88" s="4"/>
@@ -14927,7 +15015,9 @@
       <c r="A89" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B89" s="13"/>
+      <c r="B89" s="13">
+        <v>20.00126259740698</v>
+      </c>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
       <c r="E89" s="4"/>
@@ -15003,7 +15093,9 @@
       <c r="A95" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B95" s="13"/>
+      <c r="B95" s="13">
+        <v>19.99999999999991</v>
+      </c>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
       <c r="E95" s="4"/>
@@ -15016,7 +15108,9 @@
       <c r="A96" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B96" s="13"/>
+      <c r="B96" s="13">
+        <v>14.99999999999987</v>
+      </c>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
       <c r="E96" s="4"/>
@@ -15029,7 +15123,9 @@
       <c r="A97" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="13"/>
+      <c r="B97" s="13">
+        <v>1.707311211167753</v>
+      </c>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
       <c r="E97" s="4"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14040,8 +14040,8 @@
       <c r="A20" s="257" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="13" t="str">
-        <v/>
+      <c r="B20" s="13">
+        <v>77.76</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -14055,8 +14055,8 @@
       <c r="A21" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="13" t="str">
-        <v/>
+      <c r="B21" s="13">
+        <v>77.76</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -14070,8 +14070,8 @@
       <c r="A22" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="13" t="str">
-        <v/>
+      <c r="B22" s="13">
+        <v>31.189</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -14085,8 +14085,8 @@
       <c r="A23" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="13" t="str">
-        <v/>
+      <c r="B23" s="13">
+        <v>0.011</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -14100,8 +14100,8 @@
       <c r="A24" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="13" t="str">
-        <v/>
+      <c r="B24" s="13">
+        <v>31.189</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -14115,8 +14115,8 @@
       <c r="A25" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="13" t="str">
-        <v/>
+      <c r="B25" s="13">
+        <v>31.189</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -14130,8 +14130,8 @@
       <c r="A26" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="13" t="str">
-        <v/>
+      <c r="B26" s="13">
+        <v>31.189</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -14145,8 +14145,8 @@
       <c r="A27" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="13" t="str">
-        <v/>
+      <c r="B27" s="13">
+        <v>31.189</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -14160,8 +14160,8 @@
       <c r="A28" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="13" t="str">
-        <v/>
+      <c r="B28" s="13">
+        <v>43.032</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -14175,8 +14175,8 @@
       <c r="A29" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="13" t="str">
-        <v/>
+      <c r="B29" s="13">
+        <v>40.745</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -14190,8 +14190,8 @@
       <c r="A30" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="13" t="str">
-        <v/>
+      <c r="B30" s="13">
+        <v>35.857</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -14268,8 +14268,8 @@
       <c r="A36" s="257" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="13" t="str">
-        <v/>
+      <c r="B36" s="13">
+        <v>77.76</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -14283,8 +14283,8 @@
       <c r="A37" s="257" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="13" t="str">
-        <v/>
+      <c r="B37" s="13">
+        <v>97.2</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -14298,8 +14298,8 @@
       <c r="A38" s="257" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="13" t="str">
-        <v/>
+      <c r="B38" s="13">
+        <v>38.38</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -14313,8 +14313,8 @@
       <c r="A39" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="13" t="str">
-        <v/>
+      <c r="B39" s="13">
+        <v>0.01</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -14328,8 +14328,8 @@
       <c r="A40" s="257" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="13" t="str">
-        <v/>
+      <c r="B40" s="13">
+        <v>39.03</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -14343,8 +14343,8 @@
       <c r="A41" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="13" t="str">
-        <v/>
+      <c r="B41" s="13">
+        <v>38.68</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -14358,8 +14358,8 @@
       <c r="A42" s="257" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="13" t="str">
-        <v/>
+      <c r="B42" s="13">
+        <v>38.32</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -14373,8 +14373,8 @@
       <c r="A43" s="257" t="s">
         <v>118</v>
       </c>
-      <c r="B43" s="13" t="str">
-        <v/>
+      <c r="B43" s="13">
+        <v>38.32</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -14388,8 +14388,8 @@
       <c r="A44" s="257" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="13" t="str">
-        <v/>
+      <c r="B44" s="13">
+        <v>52.77</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -14403,8 +14403,8 @@
       <c r="A45" s="257" t="s">
         <v>120</v>
       </c>
-      <c r="B45" s="13" t="str">
-        <v/>
+      <c r="B45" s="13">
+        <v>49.9</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -14418,8 +14418,8 @@
       <c r="A46" s="257" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="13" t="str">
-        <v/>
+      <c r="B46" s="13">
+        <v>43.45</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -14497,7 +14497,7 @@
         <v>111</v>
       </c>
       <c r="B52" s="5">
-        <v>77.76</v>
+        <v>0.00026315789473684215</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -14512,7 +14512,7 @@
         <v>112</v>
       </c>
       <c r="B53" s="5">
-        <v>97.2</v>
+        <v>0.0003289473684210526</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -14527,7 +14527,7 @@
         <v>113</v>
       </c>
       <c r="B54" s="243">
-        <v>38.38</v>
+        <v>0.00012988683127572017</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -14542,7 +14542,7 @@
         <v>114</v>
       </c>
       <c r="B55" s="242">
-        <v>0.01</v>
+        <v>3.384232185401776e-08</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -14557,7 +14557,7 @@
         <v>115</v>
       </c>
       <c r="B56" s="5">
-        <v>39.03</v>
+        <v>0.00013208658219623134</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -14572,7 +14572,7 @@
         <v>116</v>
       </c>
       <c r="B57" s="5">
-        <v>38.68</v>
+        <v>0.0001309021009313407</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -14587,7 +14587,7 @@
         <v>117</v>
       </c>
       <c r="B58" s="5">
-        <v>38.32</v>
+        <v>0.00012968377734459607</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -14602,7 +14602,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="5">
-        <v>38.32</v>
+        <v>0.00012968377734459607</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -14617,7 +14617,7 @@
         <v>119</v>
       </c>
       <c r="B60" s="5">
-        <v>52.77</v>
+        <v>0.00017858593242365173</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -14632,7 +14632,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="5">
-        <v>49.9</v>
+        <v>0.00016887318605154862</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -14647,7 +14647,7 @@
         <v>121</v>
       </c>
       <c r="B62" s="5">
-        <v>43.45</v>
+        <v>0.00014704488845570718</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14725,7 +14725,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="244">
-        <v>0.62</v>
+        <v>172.22222222222223</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14740,7 +14740,7 @@
         <v>117</v>
       </c>
       <c r="B69" s="244">
-        <v>0.62</v>
+        <v>172.22222222222223</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -14755,7 +14755,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="244">
-        <v>0.62</v>
+        <v>172.22222222222223</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14770,7 +14770,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="244">
-        <v>0.85</v>
+        <v>236.11111111111114</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -14785,7 +14785,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="244">
-        <v>0.8</v>
+        <v>222.22222222222223</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -14800,7 +14800,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="244">
-        <v>1.39</v>
+        <v>386.11111111111114</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -14086,7 +14086,7 @@
         <v>114</v>
       </c>
       <c r="B23" s="13">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -14116,7 +14116,7 @@
         <v>116</v>
       </c>
       <c r="B25" s="13">
-        <v>31.189</v>
+        <v>31.196</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -14146,7 +14146,7 @@
         <v>118</v>
       </c>
       <c r="B27" s="13">
-        <v>31.189</v>
+        <v>31.196</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -14161,7 +14161,7 @@
         <v>119</v>
       </c>
       <c r="B28" s="13">
-        <v>43.032</v>
+        <v>43.033</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -14176,7 +14176,7 @@
         <v>120</v>
       </c>
       <c r="B29" s="13">
-        <v>40.745</v>
+        <v>40.738</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -14191,7 +14191,7 @@
         <v>121</v>
       </c>
       <c r="B30" s="13">
-        <v>35.857</v>
+        <v>35.457</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -14344,7 +14344,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="13">
-        <v>38.68</v>
+        <v>38.17</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -14359,7 +14359,7 @@
         <v>117</v>
       </c>
       <c r="B42" s="13">
-        <v>38.32</v>
+        <v>38.68</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -14374,7 +14374,7 @@
         <v>118</v>
       </c>
       <c r="B43" s="13">
-        <v>38.32</v>
+        <v>38.17</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -14389,7 +14389,7 @@
         <v>119</v>
       </c>
       <c r="B44" s="13">
-        <v>52.77</v>
+        <v>53.27</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -14404,7 +14404,7 @@
         <v>120</v>
       </c>
       <c r="B45" s="13">
-        <v>49.9</v>
+        <v>50.37</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -14419,7 +14419,7 @@
         <v>121</v>
       </c>
       <c r="B46" s="13">
-        <v>43.45</v>
+        <v>43.75</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -14572,7 +14572,7 @@
         <v>116</v>
       </c>
       <c r="B57" s="5">
-        <v>0.0001309021009313407</v>
+        <v>0.00012917614251678578</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -14587,7 +14587,7 @@
         <v>117</v>
       </c>
       <c r="B58" s="5">
-        <v>0.00012968377734459607</v>
+        <v>0.0001309021009313407</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -14602,7 +14602,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="5">
-        <v>0.00012968377734459607</v>
+        <v>0.00012917614251678578</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -14617,7 +14617,7 @@
         <v>119</v>
       </c>
       <c r="B60" s="5">
-        <v>0.00017858593242365173</v>
+        <v>0.0001802780485163526</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -14632,7 +14632,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="5">
-        <v>0.00016887318605154862</v>
+        <v>0.00017046377517868745</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -14647,7 +14647,7 @@
         <v>121</v>
       </c>
       <c r="B62" s="5">
-        <v>0.00014704488845570718</v>
+        <v>0.0001480601581113277</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14725,7 +14725,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="244">
-        <v>172.22222222222223</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14755,7 +14755,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="244">
-        <v>172.22222222222223</v>
+        <v>475.0</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14770,7 +14770,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="244">
-        <v>236.11111111111114</v>
+        <v>297.22222222222223</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -14785,7 +14785,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="244">
-        <v>222.22222222222223</v>
+        <v>280.55555555555554</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -14800,7 +14800,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="244">
-        <v>386.11111111111114</v>
+        <v>486.1111111111111</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -14878,7 +14878,7 @@
         <v>119</v>
       </c>
       <c r="B79" s="13">
-        <v>20.000242887977276</v>
+        <v>20.00013988780639</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -14893,7 +14893,7 @@
         <v>120</v>
       </c>
       <c r="B80" s="13">
-        <v>18.538224066675696</v>
+        <v>18.536014256919533</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -14908,7 +14908,7 @@
         <v>121</v>
       </c>
       <c r="B81" s="13">
-        <v>15.397765234358694</v>
+        <v>15.14647202365282</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -14986,7 +14986,7 @@
         <v>119</v>
       </c>
       <c r="B87" s="13">
-        <v>20.001259091893935</v>
+        <v>20.000692013092568</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
@@ -15001,7 +15001,7 @@
         <v>120</v>
       </c>
       <c r="B88" s="13">
-        <v>20.001258893487606</v>
+        <v>20.00069100395912</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
@@ -15016,7 +15016,7 @@
         <v>121</v>
       </c>
       <c r="B89" s="13">
-        <v>20.00126259740698</v>
+        <v>20.00069134659463</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
@@ -15094,7 +15094,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="13">
-        <v>19.99999999999991</v>
+        <v>19.999999999999954</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
@@ -15109,7 +15109,7 @@
         <v>120</v>
       </c>
       <c r="B96" s="13">
-        <v>14.99999999999987</v>
+        <v>14.999999999999803</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
@@ -15124,7 +15124,7 @@
         <v>121</v>
       </c>
       <c r="B97" s="13">
-        <v>1.707311211167753</v>
+        <v>1.4007787075816915</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13776,8 +13776,8 @@
       <c r="A2" s="295" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="377" t="s">
-        <v>263</v>
+      <c r="F2" s="377" t="str">
+        <v>EnergyPlus 8.6.0</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13795,8 +13795,8 @@
       <c r="G3" s="349"/>
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
-      <c r="J3" s="360">
-        <v>39814</v>
+      <c r="J3" s="360" t="str">
+        <v>9//30/2016</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13813,8 +13813,8 @@
       <c r="G4" s="349"/>
       <c r="H4" s="349"/>
       <c r="I4" s="349"/>
-      <c r="J4" s="350" t="s">
-        <v>264</v>
+      <c r="J4" s="350" t="str">
+        <v>E+</v>
       </c>
       <c r="K4" s="108" t="s">
         <v>56</v>
@@ -13834,8 +13834,8 @@
       <c r="G5" s="349"/>
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
-      <c r="J5" s="360">
-        <v>40179</v>
+      <c r="J5" s="360" t="str">
+        <v>11/1/2016</v>
       </c>
       <c r="K5" s="109"/>
     </row>
@@ -13862,8 +13862,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="377" t="s">
-        <v>265</v>
+      <c r="F7" s="377" t="str">
+        <v>National Renewable Energy Laboratory</v>
       </c>
       <c r="G7" s="378"/>
       <c r="H7" s="378"/>
@@ -13883,8 +13883,8 @@
       <c r="G8" s="349"/>
       <c r="H8" s="349"/>
       <c r="I8" s="349"/>
-      <c r="J8" s="350" t="s">
-        <v>266</v>
+      <c r="J8" s="350" t="str">
+        <v>NREL</v>
       </c>
       <c r="K8" s="109"/>
     </row>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13777,7 +13777,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="377" t="str">
-        <v>EnergyPlus 8.6.0</v>
+        <v>EnergyPlus 8.7.0</v>
       </c>
       <c r="G2" s="378"/>
       <c r="H2" s="378"/>
@@ -13796,7 +13796,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>9//30/2016</v>
+        <v>3//30/2017</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -13835,7 +13835,7 @@
       <c r="H5" s="349"/>
       <c r="I5" s="295"/>
       <c r="J5" s="360" t="str">
-        <v>11/1/2016</v>
+        <v>05/19/2017</v>
       </c>
       <c r="K5" s="109"/>
     </row>
@@ -14116,7 +14116,7 @@
         <v>116</v>
       </c>
       <c r="B25" s="13">
-        <v>31.196</v>
+        <v>31.189</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -14131,7 +14131,7 @@
         <v>117</v>
       </c>
       <c r="B26" s="13">
-        <v>31.189</v>
+        <v>31.19</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -14146,7 +14146,7 @@
         <v>118</v>
       </c>
       <c r="B27" s="13">
-        <v>31.196</v>
+        <v>31.189</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -14176,7 +14176,7 @@
         <v>120</v>
       </c>
       <c r="B29" s="13">
-        <v>40.738</v>
+        <v>40.741</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -14191,7 +14191,7 @@
         <v>121</v>
       </c>
       <c r="B30" s="13">
-        <v>35.457</v>
+        <v>35.814</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -14344,7 +14344,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="13">
-        <v>38.17</v>
+        <v>38.68</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -14359,7 +14359,7 @@
         <v>117</v>
       </c>
       <c r="B42" s="13">
-        <v>38.68</v>
+        <v>38.32</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -14374,7 +14374,7 @@
         <v>118</v>
       </c>
       <c r="B43" s="13">
-        <v>38.17</v>
+        <v>38.68</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -14389,7 +14389,7 @@
         <v>119</v>
       </c>
       <c r="B44" s="13">
-        <v>53.27</v>
+        <v>52.77</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -14404,7 +14404,7 @@
         <v>120</v>
       </c>
       <c r="B45" s="13">
-        <v>50.37</v>
+        <v>49.9</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -14419,7 +14419,7 @@
         <v>121</v>
       </c>
       <c r="B46" s="13">
-        <v>43.75</v>
+        <v>43.41</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -14572,7 +14572,7 @@
         <v>116</v>
       </c>
       <c r="B57" s="5">
-        <v>0.00012917614251678578</v>
+        <v>0.0001309021009313407</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -14587,7 +14587,7 @@
         <v>117</v>
       </c>
       <c r="B58" s="5">
-        <v>0.0001309021009313407</v>
+        <v>0.00012968377734459607</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -14602,7 +14602,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="5">
-        <v>0.00012917614251678578</v>
+        <v>0.0001309021009313407</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -14617,7 +14617,7 @@
         <v>119</v>
       </c>
       <c r="B60" s="5">
-        <v>0.0001802780485163526</v>
+        <v>0.00017858593242365173</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -14632,7 +14632,7 @@
         <v>120</v>
       </c>
       <c r="B61" s="5">
-        <v>0.00017046377517868745</v>
+        <v>0.00016887318605154862</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -14647,7 +14647,7 @@
         <v>121</v>
       </c>
       <c r="B62" s="5">
-        <v>0.0001480601581113277</v>
+        <v>0.0001469095191682911</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14725,7 +14725,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="244">
-        <v>433.3333333333333</v>
+        <v>172.22222222222223</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14755,7 +14755,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="244">
-        <v>475.0</v>
+        <v>213.88888888888889</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -14770,7 +14770,7 @@
         <v>119</v>
       </c>
       <c r="B71" s="244">
-        <v>297.22222222222223</v>
+        <v>294.44444444444446</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -14785,7 +14785,7 @@
         <v>120</v>
       </c>
       <c r="B72" s="244">
-        <v>280.55555555555554</v>
+        <v>277.77777777777777</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -14800,7 +14800,7 @@
         <v>121</v>
       </c>
       <c r="B73" s="244">
-        <v>486.1111111111111</v>
+        <v>483.33333333333337</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -14878,7 +14878,7 @@
         <v>119</v>
       </c>
       <c r="B79" s="13">
-        <v>20.00013988780639</v>
+        <v>20.000271801908607</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -14893,7 +14893,7 @@
         <v>120</v>
       </c>
       <c r="B80" s="13">
-        <v>18.536014256919533</v>
+        <v>18.536820123570024</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -14908,7 +14908,7 @@
         <v>121</v>
       </c>
       <c r="B81" s="13">
-        <v>15.14647202365282</v>
+        <v>15.3750299090923</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -14986,7 +14986,7 @@
         <v>119</v>
       </c>
       <c r="B87" s="13">
-        <v>20.000692013092568</v>
+        <v>20.001408372470884</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
@@ -15001,7 +15001,7 @@
         <v>120</v>
       </c>
       <c r="B88" s="13">
-        <v>20.00069100395912</v>
+        <v>20.00140801600231</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
@@ -15016,7 +15016,7 @@
         <v>121</v>
       </c>
       <c r="B89" s="13">
-        <v>20.00069134659463</v>
+        <v>20.001411402225735</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
@@ -15094,7 +15094,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="13">
-        <v>19.999999999999954</v>
+        <v>19.9999999999998</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
@@ -15109,7 +15109,7 @@
         <v>120</v>
       </c>
       <c r="B96" s="13">
-        <v>14.999999999999803</v>
+        <v>14.999999999999822</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
@@ -15124,7 +15124,7 @@
         <v>121</v>
       </c>
       <c r="B97" s="13">
-        <v>1.4007787075816915</v>
+        <v>1.8576146684294725</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>

--- a/results/RESULTS5-4.xlsx
+++ b/results/RESULTS5-4.xlsx
@@ -13796,7 +13796,7 @@
       <c r="H3" s="349"/>
       <c r="I3" s="295"/>
       <c r="J3" s="360" t="str">
-        <v>3//30/2017</v>
+        <v>3/30/2017</v>
       </c>
       <c r="K3" s="108" t="s">
         <v>55</v>
@@ -14116,7 +14116,7 @@
         <v>116</v>
       </c>
       <c r="B25" s="13">
-        <v>31.189</v>
+        <v>31.226</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -14146,7 +14146,7 @@
         <v>118</v>
       </c>
       <c r="B27" s="13">
-        <v>31.189</v>
+        <v>31.226</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -14344,7 +14344,7 @@
         <v>116</v>
       </c>
       <c r="B41" s="13">
-        <v>38.68</v>
+        <v>37.31</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -14374,7 +14374,7 @@
         <v>118</v>
       </c>
       <c r="B43" s="13">
-        <v>38.68</v>
+        <v>37.31</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -14572,7 +14572,7 @@
         <v>116</v>
       </c>
       <c r="B57" s="5">
-        <v>0.0001309021009313407</v>
+        <v>0.00012626570283734027</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -14602,7 +14602,7 @@
         <v>118</v>
       </c>
       <c r="B59" s="5">
-        <v>0.0001309021009313407</v>
+        <v>0.00012626570283734027</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -14725,7 +14725,7 @@
         <v>116</v>
       </c>
       <c r="B68" s="244">
-        <v>172.22222222222223</v>
+        <v>433.3333333333333</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -14755,7 +14755,7 @@
         <v>118</v>
       </c>
       <c r="B70" s="244">
-        <v>213.88888888888889</v>
+        <v>475.0</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
